--- a/storage/Wordle.xlsx
+++ b/storage/Wordle.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Ian</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>Susan</t>
+  </si>
+  <si>
+    <t>Alex</t>
   </si>
   <si>
     <t>Average</t>
@@ -330,7 +333,9 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -366,6 +371,9 @@
       <c r="E2" s="3">
         <v>3.0</v>
       </c>
+      <c r="F2" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
@@ -383,6 +391,9 @@
       <c r="E3" s="3">
         <v>3.0</v>
       </c>
+      <c r="F3" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
@@ -400,6 +411,9 @@
       <c r="E4" s="3">
         <v>4.0</v>
       </c>
+      <c r="F4" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
@@ -417,9 +431,12 @@
       <c r="E5" s="3">
         <v>4.0</v>
       </c>
+      <c r="F5" s="3">
+        <v>8.0</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -438,12 +455,15 @@
       <c r="E6" s="3">
         <v>3.0</v>
       </c>
+      <c r="F6" s="3">
+        <v>8.0</v>
+      </c>
       <c r="G6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="6">
         <f>AVERAGE(B:B)</f>
-        <v>4.07063197</v>
+        <v>4.093645485</v>
       </c>
     </row>
     <row r="7">
@@ -462,12 +482,15 @@
       <c r="E7" s="3">
         <v>5.0</v>
       </c>
+      <c r="F7" s="3">
+        <v>8.0</v>
+      </c>
       <c r="G7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="H7" s="6">
         <f>AVERAGE(C:C)</f>
-        <v>4.307407407</v>
+        <v>4.284280936</v>
       </c>
     </row>
     <row r="8">
@@ -486,12 +509,15 @@
       <c r="E8" s="3">
         <v>3.0</v>
       </c>
+      <c r="F8" s="3">
+        <v>8.0</v>
+      </c>
       <c r="G8" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H8" s="6">
         <f>AVERAGE(D:D)</f>
-        <v>4.72962963</v>
+        <v>4.658862876</v>
       </c>
     </row>
     <row r="9">
@@ -510,12 +536,15 @@
       <c r="E9" s="3">
         <v>5.0</v>
       </c>
+      <c r="F9" s="3">
+        <v>8.0</v>
+      </c>
       <c r="G9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H9" s="6">
         <f>AVERAGE(E:E)</f>
-        <v>4.633333333</v>
+        <v>4.67114094</v>
       </c>
     </row>
     <row r="10">
@@ -534,6 +563,9 @@
       <c r="E10" s="3">
         <v>4.0</v>
       </c>
+      <c r="F10" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
@@ -551,12 +583,15 @@
       <c r="E11" s="3">
         <v>5.0</v>
       </c>
+      <c r="F11" s="3">
+        <v>8.0</v>
+      </c>
       <c r="G11" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H11" s="8">
         <f>Count(B:B)</f>
-        <v>269</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12">
@@ -575,6 +610,9 @@
       <c r="E12" s="3">
         <v>5.0</v>
       </c>
+      <c r="F12" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
@@ -592,6 +630,9 @@
       <c r="E13" s="3">
         <v>4.0</v>
       </c>
+      <c r="F13" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
@@ -609,6 +650,9 @@
       <c r="E14" s="3">
         <v>3.0</v>
       </c>
+      <c r="F14" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
@@ -626,6 +670,9 @@
       <c r="E15" s="3">
         <v>3.0</v>
       </c>
+      <c r="F15" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
@@ -643,6 +690,9 @@
       <c r="E16" s="3">
         <v>3.0</v>
       </c>
+      <c r="F16" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
@@ -660,6 +710,9 @@
       <c r="E17" s="3">
         <v>4.0</v>
       </c>
+      <c r="F17" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
@@ -677,6 +730,9 @@
       <c r="E18" s="3">
         <v>6.0</v>
       </c>
+      <c r="F18" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
@@ -694,6 +750,9 @@
       <c r="E19" s="3">
         <v>4.0</v>
       </c>
+      <c r="F19" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
@@ -711,6 +770,9 @@
       <c r="E20" s="3">
         <v>3.0</v>
       </c>
+      <c r="F20" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2">
@@ -728,6 +790,9 @@
       <c r="E21" s="3">
         <v>3.0</v>
       </c>
+      <c r="F21" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
@@ -745,6 +810,9 @@
       <c r="E22" s="3">
         <v>4.0</v>
       </c>
+      <c r="F22" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
@@ -762,6 +830,9 @@
       <c r="E23" s="3">
         <v>8.0</v>
       </c>
+      <c r="F23" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2">
@@ -779,6 +850,9 @@
       <c r="E24" s="3">
         <v>3.0</v>
       </c>
+      <c r="F24" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2">
@@ -796,6 +870,9 @@
       <c r="E25" s="3">
         <v>4.0</v>
       </c>
+      <c r="F25" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2">
@@ -813,6 +890,9 @@
       <c r="E26" s="3">
         <v>4.0</v>
       </c>
+      <c r="F26" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2">
@@ -830,6 +910,9 @@
       <c r="E27" s="3">
         <v>4.0</v>
       </c>
+      <c r="F27" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2">
@@ -847,6 +930,9 @@
       <c r="E28" s="3">
         <v>8.0</v>
       </c>
+      <c r="F28" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
@@ -864,6 +950,9 @@
       <c r="E29" s="3">
         <v>2.0</v>
       </c>
+      <c r="F29" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2">
@@ -881,6 +970,9 @@
       <c r="E30" s="3">
         <v>3.0</v>
       </c>
+      <c r="F30" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2">
@@ -898,6 +990,9 @@
       <c r="E31" s="3">
         <v>4.0</v>
       </c>
+      <c r="F31" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2">
@@ -915,6 +1010,9 @@
       <c r="E32" s="3">
         <v>2.0</v>
       </c>
+      <c r="F32" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2">
@@ -932,6 +1030,9 @@
       <c r="E33" s="3">
         <v>5.0</v>
       </c>
+      <c r="F33" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2">
@@ -949,6 +1050,9 @@
       <c r="E34" s="3">
         <v>5.0</v>
       </c>
+      <c r="F34" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2">
@@ -966,6 +1070,9 @@
       <c r="E35" s="3">
         <v>3.0</v>
       </c>
+      <c r="F35" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2">
@@ -983,6 +1090,9 @@
       <c r="E36" s="3">
         <v>4.0</v>
       </c>
+      <c r="F36" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2">
@@ -1000,6 +1110,9 @@
       <c r="E37" s="3">
         <v>4.0</v>
       </c>
+      <c r="F37" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2">
@@ -1017,6 +1130,9 @@
       <c r="E38" s="3">
         <v>4.0</v>
       </c>
+      <c r="F38" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2">
@@ -1034,6 +1150,9 @@
       <c r="E39" s="3">
         <v>3.0</v>
       </c>
+      <c r="F39" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2">
@@ -1051,6 +1170,9 @@
       <c r="E40" s="3">
         <v>4.0</v>
       </c>
+      <c r="F40" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2">
@@ -1068,6 +1190,9 @@
       <c r="E41" s="3">
         <v>3.0</v>
       </c>
+      <c r="F41" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2">
@@ -1085,6 +1210,9 @@
       <c r="E42" s="3">
         <v>3.0</v>
       </c>
+      <c r="F42" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2">
@@ -1102,6 +1230,9 @@
       <c r="E43" s="3">
         <v>2.0</v>
       </c>
+      <c r="F43" s="3">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2">
@@ -1119,6 +1250,9 @@
       <c r="E44" s="3">
         <v>5.0</v>
       </c>
+      <c r="F44" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2">
@@ -1136,6 +1270,9 @@
       <c r="E45" s="3">
         <v>5.0</v>
       </c>
+      <c r="F45" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2">
@@ -1153,6 +1290,9 @@
       <c r="E46" s="3">
         <v>3.0</v>
       </c>
+      <c r="F46" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2">
@@ -1170,6 +1310,9 @@
       <c r="E47" s="3">
         <v>5.0</v>
       </c>
+      <c r="F47" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2">
@@ -1187,6 +1330,9 @@
       <c r="E48" s="3">
         <v>4.0</v>
       </c>
+      <c r="F48" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2">
@@ -1204,6 +1350,9 @@
       <c r="E49" s="3">
         <v>3.0</v>
       </c>
+      <c r="F49" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2">
@@ -1221,6 +1370,9 @@
       <c r="E50" s="3">
         <v>4.0</v>
       </c>
+      <c r="F50" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2">
@@ -1238,6 +1390,9 @@
       <c r="E51" s="3">
         <v>3.0</v>
       </c>
+      <c r="F51" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2">
@@ -1255,6 +1410,9 @@
       <c r="E52" s="3">
         <v>5.0</v>
       </c>
+      <c r="F52" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2">
@@ -1272,6 +1430,9 @@
       <c r="E53" s="3">
         <v>8.0</v>
       </c>
+      <c r="F53" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2">
@@ -1289,6 +1450,9 @@
       <c r="E54" s="3">
         <v>4.0</v>
       </c>
+      <c r="F54" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2">
@@ -1306,6 +1470,9 @@
       <c r="E55" s="3">
         <v>4.0</v>
       </c>
+      <c r="F55" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2">
@@ -1323,6 +1490,9 @@
       <c r="E56" s="3">
         <v>4.0</v>
       </c>
+      <c r="F56" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2">
@@ -1340,6 +1510,9 @@
       <c r="E57" s="3">
         <v>5.0</v>
       </c>
+      <c r="F57" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2">
@@ -1357,6 +1530,9 @@
       <c r="E58" s="3">
         <v>5.0</v>
       </c>
+      <c r="F58" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2">
@@ -1374,6 +1550,9 @@
       <c r="E59" s="3">
         <v>8.0</v>
       </c>
+      <c r="F59" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2">
@@ -1391,6 +1570,9 @@
       <c r="E60" s="3">
         <v>4.0</v>
       </c>
+      <c r="F60" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2">
@@ -1408,6 +1590,9 @@
       <c r="E61" s="3">
         <v>4.0</v>
       </c>
+      <c r="F61" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2">
@@ -1425,6 +1610,9 @@
       <c r="E62" s="3">
         <v>3.0</v>
       </c>
+      <c r="F62" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2">
@@ -1442,6 +1630,9 @@
       <c r="E63" s="3">
         <v>4.0</v>
       </c>
+      <c r="F63" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2">
@@ -1459,6 +1650,9 @@
       <c r="E64" s="3">
         <v>3.0</v>
       </c>
+      <c r="F64" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2">
@@ -1476,6 +1670,9 @@
       <c r="E65" s="3">
         <v>4.0</v>
       </c>
+      <c r="F65" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2">
@@ -1493,6 +1690,9 @@
       <c r="E66" s="3">
         <v>5.0</v>
       </c>
+      <c r="F66" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2">
@@ -1510,6 +1710,9 @@
       <c r="E67" s="3">
         <v>2.0</v>
       </c>
+      <c r="F67" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2">
@@ -1527,6 +1730,9 @@
       <c r="E68" s="3">
         <v>5.0</v>
       </c>
+      <c r="F68" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2">
@@ -1544,6 +1750,9 @@
       <c r="E69" s="3">
         <v>3.0</v>
       </c>
+      <c r="F69" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2">
@@ -1561,6 +1770,9 @@
       <c r="E70" s="3">
         <v>4.0</v>
       </c>
+      <c r="F70" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2">
@@ -1578,6 +1790,9 @@
       <c r="E71" s="3">
         <v>3.0</v>
       </c>
+      <c r="F71" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2">
@@ -1595,6 +1810,9 @@
       <c r="E72" s="3">
         <v>4.0</v>
       </c>
+      <c r="F72" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2">
@@ -1612,6 +1830,9 @@
       <c r="E73" s="3">
         <v>5.0</v>
       </c>
+      <c r="F73" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2">
@@ -1629,6 +1850,9 @@
       <c r="E74" s="3">
         <v>3.0</v>
       </c>
+      <c r="F74" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2">
@@ -1646,6 +1870,9 @@
       <c r="E75" s="3">
         <v>8.0</v>
       </c>
+      <c r="F75" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2">
@@ -1663,6 +1890,9 @@
       <c r="E76" s="3">
         <v>6.0</v>
       </c>
+      <c r="F76" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2">
@@ -1680,6 +1910,9 @@
       <c r="E77" s="3">
         <v>4.0</v>
       </c>
+      <c r="F77" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2">
@@ -1697,6 +1930,9 @@
       <c r="E78" s="3">
         <v>8.0</v>
       </c>
+      <c r="F78" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2">
@@ -1714,6 +1950,9 @@
       <c r="E79" s="3">
         <v>4.0</v>
       </c>
+      <c r="F79" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2">
@@ -1731,6 +1970,9 @@
       <c r="E80" s="3">
         <v>6.0</v>
       </c>
+      <c r="F80" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2">
@@ -1748,6 +1990,9 @@
       <c r="E81" s="3">
         <v>3.0</v>
       </c>
+      <c r="F81" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2">
@@ -1765,6 +2010,9 @@
       <c r="E82" s="3">
         <v>4.0</v>
       </c>
+      <c r="F82" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2">
@@ -1782,6 +2030,9 @@
       <c r="E83" s="3">
         <v>4.0</v>
       </c>
+      <c r="F83" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2">
@@ -1799,6 +2050,9 @@
       <c r="E84" s="3">
         <v>3.0</v>
       </c>
+      <c r="F84" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2">
@@ -1816,6 +2070,9 @@
       <c r="E85" s="3">
         <v>4.0</v>
       </c>
+      <c r="F85" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2">
@@ -1833,6 +2090,9 @@
       <c r="E86" s="3">
         <v>5.0</v>
       </c>
+      <c r="F86" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2">
@@ -1850,6 +2110,9 @@
       <c r="E87" s="3">
         <v>6.0</v>
       </c>
+      <c r="F87" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2">
@@ -1867,6 +2130,9 @@
       <c r="E88" s="3">
         <v>8.0</v>
       </c>
+      <c r="F88" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2">
@@ -1884,6 +2150,9 @@
       <c r="E89" s="3">
         <v>4.0</v>
       </c>
+      <c r="F89" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2">
@@ -1901,6 +2170,9 @@
       <c r="E90" s="3">
         <v>3.0</v>
       </c>
+      <c r="F90" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2">
@@ -1918,6 +2190,9 @@
       <c r="E91" s="3">
         <v>5.0</v>
       </c>
+      <c r="F91" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2">
@@ -1935,6 +2210,9 @@
       <c r="E92" s="3">
         <v>3.0</v>
       </c>
+      <c r="F92" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2">
@@ -1952,6 +2230,9 @@
       <c r="E93" s="3">
         <v>3.0</v>
       </c>
+      <c r="F93" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2">
@@ -1969,6 +2250,9 @@
       <c r="E94" s="3">
         <v>5.0</v>
       </c>
+      <c r="F94" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2">
@@ -1986,6 +2270,9 @@
       <c r="E95" s="3">
         <v>6.0</v>
       </c>
+      <c r="F95" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2">
@@ -2003,6 +2290,9 @@
       <c r="E96" s="3">
         <v>2.0</v>
       </c>
+      <c r="F96" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2">
@@ -2020,6 +2310,9 @@
       <c r="E97" s="3">
         <v>4.0</v>
       </c>
+      <c r="F97" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2">
@@ -2037,6 +2330,9 @@
       <c r="E98" s="3">
         <v>5.0</v>
       </c>
+      <c r="F98" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2">
@@ -2054,6 +2350,9 @@
       <c r="E99" s="3">
         <v>4.0</v>
       </c>
+      <c r="F99" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2">
@@ -2071,6 +2370,9 @@
       <c r="E100" s="3">
         <v>5.0</v>
       </c>
+      <c r="F100" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2">
@@ -2088,6 +2390,9 @@
       <c r="E101" s="3">
         <v>3.0</v>
       </c>
+      <c r="F101" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2">
@@ -2105,6 +2410,9 @@
       <c r="E102" s="3">
         <v>4.0</v>
       </c>
+      <c r="F102" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2">
@@ -2122,6 +2430,9 @@
       <c r="E103" s="3">
         <v>4.0</v>
       </c>
+      <c r="F103" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2">
@@ -2139,6 +2450,9 @@
       <c r="E104" s="3">
         <v>5.0</v>
       </c>
+      <c r="F104" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2">
@@ -2156,6 +2470,9 @@
       <c r="E105" s="3">
         <v>4.0</v>
       </c>
+      <c r="F105" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2">
@@ -2173,6 +2490,9 @@
       <c r="E106" s="3">
         <v>4.0</v>
       </c>
+      <c r="F106" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2">
@@ -2190,6 +2510,9 @@
       <c r="E107" s="3">
         <v>4.0</v>
       </c>
+      <c r="F107" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2">
@@ -2207,6 +2530,9 @@
       <c r="E108" s="3">
         <v>3.0</v>
       </c>
+      <c r="F108" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2">
@@ -2224,6 +2550,9 @@
       <c r="E109" s="3">
         <v>3.0</v>
       </c>
+      <c r="F109" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2">
@@ -2241,6 +2570,9 @@
       <c r="E110" s="3">
         <v>4.0</v>
       </c>
+      <c r="F110" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2">
@@ -2258,6 +2590,9 @@
       <c r="E111" s="3">
         <v>2.0</v>
       </c>
+      <c r="F111" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2">
@@ -2275,6 +2610,9 @@
       <c r="E112" s="3">
         <v>4.0</v>
       </c>
+      <c r="F112" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2">
@@ -2292,6 +2630,9 @@
       <c r="E113" s="3">
         <v>4.0</v>
       </c>
+      <c r="F113" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2">
@@ -2309,6 +2650,9 @@
       <c r="E114" s="3">
         <v>5.0</v>
       </c>
+      <c r="F114" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2">
@@ -2326,6 +2670,9 @@
       <c r="E115" s="3">
         <v>4.0</v>
       </c>
+      <c r="F115" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2">
@@ -2343,6 +2690,9 @@
       <c r="E116" s="3">
         <v>3.0</v>
       </c>
+      <c r="F116" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2">
@@ -2360,6 +2710,9 @@
       <c r="E117" s="3">
         <v>5.0</v>
       </c>
+      <c r="F117" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2">
@@ -2377,6 +2730,9 @@
       <c r="E118" s="3">
         <v>5.0</v>
       </c>
+      <c r="F118" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2">
@@ -2394,6 +2750,9 @@
       <c r="E119" s="3">
         <v>4.0</v>
       </c>
+      <c r="F119" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2">
@@ -2411,6 +2770,9 @@
       <c r="E120" s="3">
         <v>4.0</v>
       </c>
+      <c r="F120" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2">
@@ -2428,6 +2790,9 @@
       <c r="E121" s="3">
         <v>8.0</v>
       </c>
+      <c r="F121" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2">
@@ -2445,6 +2810,9 @@
       <c r="E122" s="3">
         <v>8.0</v>
       </c>
+      <c r="F122" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2">
@@ -2462,6 +2830,9 @@
       <c r="E123" s="3">
         <v>3.0</v>
       </c>
+      <c r="F123" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2">
@@ -2479,6 +2850,9 @@
       <c r="E124" s="3">
         <v>4.0</v>
       </c>
+      <c r="F124" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2">
@@ -2496,6 +2870,9 @@
       <c r="E125" s="3">
         <v>2.0</v>
       </c>
+      <c r="F125" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2">
@@ -2513,6 +2890,9 @@
       <c r="E126" s="3">
         <v>3.0</v>
       </c>
+      <c r="F126" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2">
@@ -2530,6 +2910,9 @@
       <c r="E127" s="3">
         <v>5.0</v>
       </c>
+      <c r="F127" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2">
@@ -2547,6 +2930,9 @@
       <c r="E128" s="3">
         <v>3.0</v>
       </c>
+      <c r="F128" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2">
@@ -2564,6 +2950,9 @@
       <c r="E129" s="3">
         <v>5.0</v>
       </c>
+      <c r="F129" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2">
@@ -2581,6 +2970,9 @@
       <c r="E130" s="3">
         <v>6.0</v>
       </c>
+      <c r="F130" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2">
@@ -2598,6 +2990,9 @@
       <c r="E131" s="3">
         <v>3.0</v>
       </c>
+      <c r="F131" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2">
@@ -2615,6 +3010,9 @@
       <c r="E132" s="3">
         <v>3.0</v>
       </c>
+      <c r="F132" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2">
@@ -2632,6 +3030,9 @@
       <c r="E133" s="3">
         <v>4.0</v>
       </c>
+      <c r="F133" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2">
@@ -2649,6 +3050,9 @@
       <c r="E134" s="3">
         <v>3.0</v>
       </c>
+      <c r="F134" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2">
@@ -2666,6 +3070,9 @@
       <c r="E135" s="3">
         <v>8.0</v>
       </c>
+      <c r="F135" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2">
@@ -2683,6 +3090,9 @@
       <c r="E136" s="3">
         <v>4.0</v>
       </c>
+      <c r="F136" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2">
@@ -2700,6 +3110,9 @@
       <c r="E137" s="3">
         <v>3.0</v>
       </c>
+      <c r="F137" s="3">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2">
@@ -2717,6 +3130,9 @@
       <c r="E138" s="3">
         <v>3.0</v>
       </c>
+      <c r="F138" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2">
@@ -2734,6 +3150,9 @@
       <c r="E139" s="3">
         <v>5.0</v>
       </c>
+      <c r="F139" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2">
@@ -2751,6 +3170,9 @@
       <c r="E140" s="3">
         <v>3.0</v>
       </c>
+      <c r="F140" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2">
@@ -2768,6 +3190,9 @@
       <c r="E141" s="3">
         <v>4.0</v>
       </c>
+      <c r="F141" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2">
@@ -2785,6 +3210,9 @@
       <c r="E142" s="3">
         <v>5.0</v>
       </c>
+      <c r="F142" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2">
@@ -2802,6 +3230,9 @@
       <c r="E143" s="3">
         <v>2.0</v>
       </c>
+      <c r="F143" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2">
@@ -2819,6 +3250,9 @@
       <c r="E144" s="3">
         <v>4.0</v>
       </c>
+      <c r="F144" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2">
@@ -2836,6 +3270,9 @@
       <c r="E145" s="3">
         <v>5.0</v>
       </c>
+      <c r="F145" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2">
@@ -2853,6 +3290,9 @@
       <c r="E146" s="3">
         <v>2.0</v>
       </c>
+      <c r="F146" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2">
@@ -2870,6 +3310,9 @@
       <c r="E147" s="3">
         <v>3.0</v>
       </c>
+      <c r="F147" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2">
@@ -2887,6 +3330,9 @@
       <c r="E148" s="3">
         <v>3.0</v>
       </c>
+      <c r="F148" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2">
@@ -2904,6 +3350,9 @@
       <c r="E149" s="3">
         <v>4.0</v>
       </c>
+      <c r="F149" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2">
@@ -2921,6 +3370,9 @@
       <c r="E150" s="3">
         <v>8.0</v>
       </c>
+      <c r="F150" s="3">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2">
@@ -2938,6 +3390,9 @@
       <c r="E151" s="3">
         <v>4.0</v>
       </c>
+      <c r="F151" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2">
@@ -2955,6 +3410,9 @@
       <c r="E152" s="3">
         <v>4.0</v>
       </c>
+      <c r="F152" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2">
@@ -2972,6 +3430,9 @@
       <c r="E153" s="3">
         <v>3.0</v>
       </c>
+      <c r="F153" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2">
@@ -2989,6 +3450,9 @@
       <c r="E154" s="3">
         <v>3.0</v>
       </c>
+      <c r="F154" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2">
@@ -3006,6 +3470,9 @@
       <c r="E155" s="3">
         <v>8.0</v>
       </c>
+      <c r="F155" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2">
@@ -3023,6 +3490,9 @@
       <c r="E156" s="3">
         <v>4.0</v>
       </c>
+      <c r="F156" s="3">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2">
@@ -3040,6 +3510,9 @@
       <c r="E157" s="3">
         <v>5.0</v>
       </c>
+      <c r="F157" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2">
@@ -3057,6 +3530,9 @@
       <c r="E158" s="3">
         <v>3.0</v>
       </c>
+      <c r="F158" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2">
@@ -3074,6 +3550,9 @@
       <c r="E159" s="3">
         <v>3.0</v>
       </c>
+      <c r="F159" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2">
@@ -3091,6 +3570,9 @@
       <c r="E160" s="3">
         <v>2.0</v>
       </c>
+      <c r="F160" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2">
@@ -3108,6 +3590,9 @@
       <c r="E161" s="3">
         <v>3.0</v>
       </c>
+      <c r="F161" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2">
@@ -3125,6 +3610,9 @@
       <c r="E162" s="3">
         <v>6.0</v>
       </c>
+      <c r="F162" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2">
@@ -3142,6 +3630,9 @@
       <c r="E163" s="3">
         <v>5.0</v>
       </c>
+      <c r="F163" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2">
@@ -3159,6 +3650,9 @@
       <c r="E164" s="3">
         <v>4.0</v>
       </c>
+      <c r="F164" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2">
@@ -3176,6 +3670,9 @@
       <c r="E165" s="3">
         <v>3.0</v>
       </c>
+      <c r="F165" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2">
@@ -3193,6 +3690,9 @@
       <c r="E166" s="3">
         <v>4.0</v>
       </c>
+      <c r="F166" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2">
@@ -3210,6 +3710,9 @@
       <c r="E167" s="3">
         <v>5.0</v>
       </c>
+      <c r="F167" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2">
@@ -3227,6 +3730,9 @@
       <c r="E168" s="3">
         <v>4.0</v>
       </c>
+      <c r="F168" s="3">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2">
@@ -3244,6 +3750,9 @@
       <c r="E169" s="3">
         <v>4.0</v>
       </c>
+      <c r="F169" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2">
@@ -3261,6 +3770,9 @@
       <c r="E170" s="3">
         <v>2.0</v>
       </c>
+      <c r="F170" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2">
@@ -3278,6 +3790,9 @@
       <c r="E171" s="3">
         <v>3.0</v>
       </c>
+      <c r="F171" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2">
@@ -3295,6 +3810,9 @@
       <c r="E172" s="3">
         <v>3.0</v>
       </c>
+      <c r="F172" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2">
@@ -3312,6 +3830,9 @@
       <c r="E173" s="3">
         <v>8.0</v>
       </c>
+      <c r="F173" s="3">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2">
@@ -3329,6 +3850,9 @@
       <c r="E174" s="3">
         <v>5.0</v>
       </c>
+      <c r="F174" s="3">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2">
@@ -3346,6 +3870,9 @@
       <c r="E175" s="3">
         <v>4.0</v>
       </c>
+      <c r="F175" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2">
@@ -3363,6 +3890,9 @@
       <c r="E176" s="3">
         <v>4.0</v>
       </c>
+      <c r="F176" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2">
@@ -3380,6 +3910,9 @@
       <c r="E177" s="3">
         <v>6.0</v>
       </c>
+      <c r="F177" s="3">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2">
@@ -3397,6 +3930,9 @@
       <c r="E178" s="3">
         <v>3.0</v>
       </c>
+      <c r="F178" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2">
@@ -3414,6 +3950,9 @@
       <c r="E179" s="3">
         <v>3.0</v>
       </c>
+      <c r="F179" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2">
@@ -3431,6 +3970,9 @@
       <c r="E180" s="3">
         <v>6.0</v>
       </c>
+      <c r="F180" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2">
@@ -3448,6 +3990,9 @@
       <c r="E181" s="3">
         <v>5.0</v>
       </c>
+      <c r="F181" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2">
@@ -3465,6 +4010,9 @@
       <c r="E182" s="3">
         <v>4.0</v>
       </c>
+      <c r="F182" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2">
@@ -3482,6 +4030,9 @@
       <c r="E183" s="3">
         <v>8.0</v>
       </c>
+      <c r="F183" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2">
@@ -3499,6 +4050,9 @@
       <c r="E184" s="3">
         <v>8.0</v>
       </c>
+      <c r="F184" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2">
@@ -3516,6 +4070,9 @@
       <c r="E185" s="3">
         <v>3.0</v>
       </c>
+      <c r="F185" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2">
@@ -3533,6 +4090,9 @@
       <c r="E186" s="3">
         <v>8.0</v>
       </c>
+      <c r="F186" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2">
@@ -3550,6 +4110,9 @@
       <c r="E187" s="3">
         <v>3.0</v>
       </c>
+      <c r="F187" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2">
@@ -3567,6 +4130,9 @@
       <c r="E188" s="3">
         <v>4.0</v>
       </c>
+      <c r="F188" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2">
@@ -3584,6 +4150,9 @@
       <c r="E189" s="3">
         <v>3.0</v>
       </c>
+      <c r="F189" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2">
@@ -3601,6 +4170,9 @@
       <c r="E190" s="3">
         <v>6.0</v>
       </c>
+      <c r="F190" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2">
@@ -3618,6 +4190,9 @@
       <c r="E191" s="3">
         <v>4.0</v>
       </c>
+      <c r="F191" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2">
@@ -3635,6 +4210,9 @@
       <c r="E192" s="3">
         <v>3.0</v>
       </c>
+      <c r="F192" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2">
@@ -3652,6 +4230,9 @@
       <c r="E193" s="3">
         <v>3.0</v>
       </c>
+      <c r="F193" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2">
@@ -3669,6 +4250,9 @@
       <c r="E194" s="3">
         <v>5.0</v>
       </c>
+      <c r="F194" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2">
@@ -3686,6 +4270,9 @@
       <c r="E195" s="3">
         <v>8.0</v>
       </c>
+      <c r="F195" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2">
@@ -3703,6 +4290,9 @@
       <c r="E196" s="3">
         <v>8.0</v>
       </c>
+      <c r="F196" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2">
@@ -3720,6 +4310,9 @@
       <c r="E197" s="3">
         <v>3.0</v>
       </c>
+      <c r="F197" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2">
@@ -3737,6 +4330,9 @@
       <c r="E198" s="3">
         <v>4.0</v>
       </c>
+      <c r="F198" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2">
@@ -3754,6 +4350,9 @@
       <c r="E199" s="3">
         <v>8.0</v>
       </c>
+      <c r="F199" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2">
@@ -3771,6 +4370,9 @@
       <c r="E200" s="3">
         <v>8.0</v>
       </c>
+      <c r="F200" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2">
@@ -3788,6 +4390,9 @@
       <c r="E201" s="3">
         <v>8.0</v>
       </c>
+      <c r="F201" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2">
@@ -3805,6 +4410,9 @@
       <c r="E202" s="3">
         <v>4.0</v>
       </c>
+      <c r="F202" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2">
@@ -3822,6 +4430,9 @@
       <c r="E203" s="3">
         <v>4.0</v>
       </c>
+      <c r="F203" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2">
@@ -3839,6 +4450,9 @@
       <c r="E204" s="3">
         <v>3.0</v>
       </c>
+      <c r="F204" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2">
@@ -3856,6 +4470,9 @@
       <c r="E205" s="3">
         <v>6.0</v>
       </c>
+      <c r="F205" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2">
@@ -3873,6 +4490,9 @@
       <c r="E206" s="3">
         <v>8.0</v>
       </c>
+      <c r="F206" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2">
@@ -3890,6 +4510,9 @@
       <c r="E207" s="3">
         <v>4.0</v>
       </c>
+      <c r="F207" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2">
@@ -3907,6 +4530,9 @@
       <c r="E208" s="3">
         <v>8.0</v>
       </c>
+      <c r="F208" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2">
@@ -3924,6 +4550,9 @@
       <c r="E209" s="3">
         <v>4.0</v>
       </c>
+      <c r="F209" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2">
@@ -3941,6 +4570,9 @@
       <c r="E210" s="3">
         <v>8.0</v>
       </c>
+      <c r="F210" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2">
@@ -3958,6 +4590,9 @@
       <c r="E211" s="3">
         <v>5.0</v>
       </c>
+      <c r="F211" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2">
@@ -3975,6 +4610,9 @@
       <c r="E212" s="3">
         <v>5.0</v>
       </c>
+      <c r="F212" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2">
@@ -3992,6 +4630,9 @@
       <c r="E213" s="3">
         <v>5.0</v>
       </c>
+      <c r="F213" s="3">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2">
@@ -4009,6 +4650,9 @@
       <c r="E214" s="3">
         <v>8.0</v>
       </c>
+      <c r="F214" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2">
@@ -4026,6 +4670,9 @@
       <c r="E215" s="3">
         <v>2.0</v>
       </c>
+      <c r="F215" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2">
@@ -4043,6 +4690,9 @@
       <c r="E216" s="3">
         <v>8.0</v>
       </c>
+      <c r="F216" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2">
@@ -4060,6 +4710,9 @@
       <c r="E217" s="3">
         <v>6.0</v>
       </c>
+      <c r="F217" s="3">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2">
@@ -4077,6 +4730,9 @@
       <c r="E218" s="3">
         <v>8.0</v>
       </c>
+      <c r="F218" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2">
@@ -4094,6 +4750,9 @@
       <c r="E219" s="3">
         <v>3.0</v>
       </c>
+      <c r="F219" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2">
@@ -4111,6 +4770,9 @@
       <c r="E220" s="3">
         <v>3.0</v>
       </c>
+      <c r="F220" s="3">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2">
@@ -4128,6 +4790,9 @@
       <c r="E221" s="3">
         <v>8.0</v>
       </c>
+      <c r="F221" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2">
@@ -4145,6 +4810,9 @@
       <c r="E222" s="3">
         <v>5.0</v>
       </c>
+      <c r="F222" s="3">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2">
@@ -4162,6 +4830,9 @@
       <c r="E223" s="3">
         <v>4.0</v>
       </c>
+      <c r="F223" s="3">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2">
@@ -4179,6 +4850,9 @@
       <c r="E224" s="3">
         <v>4.0</v>
       </c>
+      <c r="F224" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2">
@@ -4196,6 +4870,9 @@
       <c r="E225" s="3">
         <v>4.0</v>
       </c>
+      <c r="F225" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2">
@@ -4213,6 +4890,9 @@
       <c r="E226" s="3">
         <v>8.0</v>
       </c>
+      <c r="F226" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2">
@@ -4230,6 +4910,9 @@
       <c r="E227" s="3">
         <v>4.0</v>
       </c>
+      <c r="F227" s="3">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2">
@@ -4247,6 +4930,9 @@
       <c r="E228" s="3">
         <v>8.0</v>
       </c>
+      <c r="F228" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2">
@@ -4264,6 +4950,9 @@
       <c r="E229" s="3">
         <v>8.0</v>
       </c>
+      <c r="F229" s="3">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2">
@@ -4281,6 +4970,9 @@
       <c r="E230" s="3">
         <v>4.0</v>
       </c>
+      <c r="F230" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2">
@@ -4298,6 +4990,9 @@
       <c r="E231" s="3">
         <v>3.0</v>
       </c>
+      <c r="F231" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2">
@@ -4315,6 +5010,9 @@
       <c r="E232" s="3">
         <v>4.0</v>
       </c>
+      <c r="F232" s="3">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2">
@@ -4332,6 +5030,9 @@
       <c r="E233" s="3">
         <v>4.0</v>
       </c>
+      <c r="F233" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2">
@@ -4349,6 +5050,9 @@
       <c r="E234" s="3">
         <v>8.0</v>
       </c>
+      <c r="F234" s="3">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="2">
@@ -4366,6 +5070,9 @@
       <c r="E235" s="3">
         <v>8.0</v>
       </c>
+      <c r="F235" s="3">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2">
@@ -4383,6 +5090,9 @@
       <c r="E236" s="3">
         <v>8.0</v>
       </c>
+      <c r="F236" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2">
@@ -4400,6 +5110,9 @@
       <c r="E237" s="3">
         <v>5.0</v>
       </c>
+      <c r="F237" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2">
@@ -4417,6 +5130,9 @@
       <c r="E238" s="3">
         <v>4.0</v>
       </c>
+      <c r="F238" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2">
@@ -4434,6 +5150,9 @@
       <c r="E239" s="3">
         <v>5.0</v>
       </c>
+      <c r="F239" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="2">
@@ -4451,6 +5170,9 @@
       <c r="E240" s="3">
         <v>6.0</v>
       </c>
+      <c r="F240" s="3">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2">
@@ -4468,6 +5190,9 @@
       <c r="E241" s="3">
         <v>4.0</v>
       </c>
+      <c r="F241" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2">
@@ -4485,6 +5210,9 @@
       <c r="E242" s="3">
         <v>4.0</v>
       </c>
+      <c r="F242" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="2">
@@ -4502,6 +5230,9 @@
       <c r="E243" s="3">
         <v>8.0</v>
       </c>
+      <c r="F243" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="2">
@@ -4519,6 +5250,9 @@
       <c r="E244" s="3">
         <v>3.0</v>
       </c>
+      <c r="F244" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="2">
@@ -4536,6 +5270,9 @@
       <c r="E245" s="3">
         <v>4.0</v>
       </c>
+      <c r="F245" s="3">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="2">
@@ -4553,6 +5290,9 @@
       <c r="E246" s="3">
         <v>4.0</v>
       </c>
+      <c r="F246" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="2">
@@ -4570,6 +5310,9 @@
       <c r="E247" s="3">
         <v>8.0</v>
       </c>
+      <c r="F247" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="2">
@@ -4587,6 +5330,9 @@
       <c r="E248" s="3">
         <v>3.0</v>
       </c>
+      <c r="F248" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="2">
@@ -4604,6 +5350,9 @@
       <c r="E249" s="3">
         <v>5.0</v>
       </c>
+      <c r="F249" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="2">
@@ -4621,6 +5370,9 @@
       <c r="E250" s="3">
         <v>3.0</v>
       </c>
+      <c r="F250" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="2">
@@ -4638,6 +5390,9 @@
       <c r="E251" s="3">
         <v>8.0</v>
       </c>
+      <c r="F251" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="2">
@@ -4655,6 +5410,9 @@
       <c r="E252" s="3">
         <v>8.0</v>
       </c>
+      <c r="F252" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2">
@@ -4672,6 +5430,9 @@
       <c r="E253" s="3">
         <v>8.0</v>
       </c>
+      <c r="F253" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="2">
@@ -4689,6 +5450,9 @@
       <c r="E254" s="3">
         <v>8.0</v>
       </c>
+      <c r="F254" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="2">
@@ -4706,6 +5470,9 @@
       <c r="E255" s="3">
         <v>8.0</v>
       </c>
+      <c r="F255" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="2">
@@ -4723,6 +5490,9 @@
       <c r="E256" s="3">
         <v>8.0</v>
       </c>
+      <c r="F256" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="2">
@@ -4740,6 +5510,9 @@
       <c r="E257" s="3">
         <v>8.0</v>
       </c>
+      <c r="F257" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="2">
@@ -4757,6 +5530,9 @@
       <c r="E258" s="3">
         <v>8.0</v>
       </c>
+      <c r="F258" s="3">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="2">
@@ -4774,6 +5550,9 @@
       <c r="E259" s="3">
         <v>8.0</v>
       </c>
+      <c r="F259" s="3">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="2">
@@ -4791,6 +5570,9 @@
       <c r="E260" s="3">
         <v>6.0</v>
       </c>
+      <c r="F260" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="2">
@@ -4808,6 +5590,9 @@
       <c r="E261" s="3">
         <v>6.0</v>
       </c>
+      <c r="F261" s="3">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="2">
@@ -4825,6 +5610,9 @@
       <c r="E262" s="3">
         <v>4.0</v>
       </c>
+      <c r="F262" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="2">
@@ -4842,6 +5630,9 @@
       <c r="E263" s="3">
         <v>8.0</v>
       </c>
+      <c r="F263" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="2">
@@ -4859,6 +5650,9 @@
       <c r="E264" s="3">
         <v>8.0</v>
       </c>
+      <c r="F264" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="2">
@@ -4876,6 +5670,9 @@
       <c r="E265" s="3">
         <v>3.0</v>
       </c>
+      <c r="F265" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="2">
@@ -4893,6 +5690,9 @@
       <c r="E266" s="3">
         <v>8.0</v>
       </c>
+      <c r="F266" s="3">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="2">
@@ -4910,6 +5710,9 @@
       <c r="E267" s="3">
         <v>3.0</v>
       </c>
+      <c r="F267" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="2">
@@ -4927,6 +5730,9 @@
       <c r="E268" s="3">
         <v>3.0</v>
       </c>
+      <c r="F268" s="3">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="2">
@@ -4944,6 +5750,9 @@
       <c r="E269" s="3">
         <v>3.0</v>
       </c>
+      <c r="F269" s="3">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="2">
@@ -4961,11 +5770,17 @@
       <c r="E270" s="3">
         <v>4.0</v>
       </c>
+      <c r="F270" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="2">
         <v>511.0</v>
       </c>
+      <c r="B271" s="3">
+        <v>8.0</v>
+      </c>
       <c r="C271" s="3">
         <v>3.0</v>
       </c>
@@ -4975,99 +5790,589 @@
       <c r="E271" s="3">
         <v>5.0</v>
       </c>
+      <c r="F271" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="272">
-      <c r="A272" s="1"/>
+      <c r="A272" s="2">
+        <v>512.0</v>
+      </c>
+      <c r="B272" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C272" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D272" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E272" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F272" s="3">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="273">
-      <c r="A273" s="1"/>
+      <c r="A273" s="2">
+        <v>513.0</v>
+      </c>
+      <c r="B273" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C273" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D273" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E273" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F273" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="274">
-      <c r="A274" s="1"/>
+      <c r="A274" s="2">
+        <v>514.0</v>
+      </c>
+      <c r="B274" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C274" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D274" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="E274" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F274" s="3">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="275">
-      <c r="A275" s="1"/>
+      <c r="A275" s="2">
+        <v>515.0</v>
+      </c>
+      <c r="B275" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="C275" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="D275" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E275" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F275" s="3">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="276">
-      <c r="A276" s="1"/>
+      <c r="A276" s="2">
+        <v>516.0</v>
+      </c>
+      <c r="B276" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C276" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D276" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E276" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F276" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="277">
-      <c r="A277" s="1"/>
+      <c r="A277" s="2">
+        <v>517.0</v>
+      </c>
+      <c r="B277" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="C277" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D277" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E277" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="F277" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="278">
-      <c r="A278" s="1"/>
+      <c r="A278" s="2">
+        <v>518.0</v>
+      </c>
+      <c r="B278" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C278" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D278" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E278" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="F278" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="279">
-      <c r="A279" s="1"/>
+      <c r="A279" s="2">
+        <v>519.0</v>
+      </c>
+      <c r="B279" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C279" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="D279" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E279" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="F279" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="280">
-      <c r="A280" s="1"/>
+      <c r="A280" s="2">
+        <v>520.0</v>
+      </c>
+      <c r="B280" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="C280" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D280" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E280" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F280" s="3">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="281">
-      <c r="A281" s="1"/>
+      <c r="A281" s="2">
+        <v>521.0</v>
+      </c>
+      <c r="B281" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="C281" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D281" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E281" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F281" s="3">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="282">
-      <c r="A282" s="1"/>
+      <c r="A282" s="2">
+        <v>522.0</v>
+      </c>
+      <c r="B282" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C282" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D282" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E282" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="F282" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="283">
-      <c r="A283" s="1"/>
+      <c r="A283" s="2">
+        <v>523.0</v>
+      </c>
+      <c r="B283" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C283" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D283" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="E283" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="F283" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="284">
-      <c r="A284" s="1"/>
+      <c r="A284" s="2">
+        <v>524.0</v>
+      </c>
+      <c r="B284" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="C284" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D284" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E284" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F284" s="3">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="285">
-      <c r="A285" s="1"/>
+      <c r="A285" s="2">
+        <v>525.0</v>
+      </c>
+      <c r="B285" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="C285" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D285" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E285" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="F285" s="3">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="286">
-      <c r="A286" s="1"/>
+      <c r="A286" s="2">
+        <v>526.0</v>
+      </c>
+      <c r="B286" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C286" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="D286" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E286" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F286" s="3">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="287">
-      <c r="A287" s="1"/>
+      <c r="A287" s="2">
+        <v>527.0</v>
+      </c>
+      <c r="B287" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="C287" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D287" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E287" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F287" s="3">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="288">
-      <c r="A288" s="1"/>
+      <c r="A288" s="2">
+        <v>528.0</v>
+      </c>
+      <c r="B288" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C288" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D288" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E288" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="F288" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="289">
-      <c r="A289" s="1"/>
+      <c r="A289" s="2">
+        <v>529.0</v>
+      </c>
+      <c r="B289" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="C289" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D289" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E289" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="F289" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="290">
-      <c r="A290" s="1"/>
+      <c r="A290" s="2">
+        <v>530.0</v>
+      </c>
+      <c r="B290" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="C290" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="D290" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="E290" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F290" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="291">
-      <c r="A291" s="1"/>
+      <c r="A291" s="2">
+        <v>531.0</v>
+      </c>
+      <c r="B291" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C291" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D291" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E291" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F291" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="292">
-      <c r="A292" s="1"/>
+      <c r="A292" s="2">
+        <v>532.0</v>
+      </c>
+      <c r="B292" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="C292" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D292" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E292" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="F292" s="3">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="293">
-      <c r="A293" s="1"/>
+      <c r="A293" s="2">
+        <v>533.0</v>
+      </c>
+      <c r="B293" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="C293" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D293" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E293" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F293" s="3">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="294">
-      <c r="A294" s="1"/>
+      <c r="A294" s="2">
+        <v>534.0</v>
+      </c>
+      <c r="B294" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="C294" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="D294" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E294" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F294" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="295">
-      <c r="A295" s="1"/>
+      <c r="A295" s="2">
+        <v>535.0</v>
+      </c>
+      <c r="B295" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="C295" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="D295" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E295" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F295" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="296">
-      <c r="A296" s="1"/>
+      <c r="A296" s="2">
+        <v>536.0</v>
+      </c>
+      <c r="B296" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="C296" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D296" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E296" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F296" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="297">
-      <c r="A297" s="1"/>
+      <c r="A297" s="2">
+        <v>537.0</v>
+      </c>
+      <c r="B297" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C297" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D297" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E297" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F297" s="3">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="298">
-      <c r="A298" s="1"/>
+      <c r="A298" s="2">
+        <v>538.0</v>
+      </c>
+      <c r="B298" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C298" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D298" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E298" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F298" s="3">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="299">
-      <c r="A299" s="1"/>
+      <c r="A299" s="2">
+        <v>539.0</v>
+      </c>
+      <c r="B299" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="C299" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D299" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="E299" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F299" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="300">
-      <c r="A300" s="1"/>
+      <c r="A300" s="2">
+        <v>540.0</v>
+      </c>
+      <c r="B300" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C300" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D300" s="3">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="301">
-      <c r="A301" s="1"/>
+      <c r="A301" s="2"/>
     </row>
     <row r="302">
-      <c r="A302" s="1"/>
+      <c r="A302" s="2"/>
     </row>
     <row r="303">
       <c r="A303" s="1"/>
